--- a/resources/experiment 1/predictions/single/LinearRegression/average time/Retinopatía proliferativa.xlsx
+++ b/resources/experiment 1/predictions/single/LinearRegression/average time/Retinopatía proliferativa.xlsx
@@ -532,7 +532,7 @@
         <v>25.53034463282942</v>
       </c>
       <c r="B9" t="n">
-        <v>16.49731901171079</v>
+        <v>16.4973190117108</v>
       </c>
       <c r="C9" t="n">
         <v>34.71877544640645</v>
@@ -557,7 +557,7 @@
         <v>11.79539118913283</v>
       </c>
       <c r="C11" t="n">
-        <v>19.81645379615841</v>
+        <v>19.81645379615842</v>
       </c>
     </row>
     <row r="12">
@@ -573,7 +573,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>9.207766399749064</v>
+        <v>9.20776639974906</v>
       </c>
       <c r="B13" t="n">
         <v>8.727417891360583</v>
@@ -653,7 +653,7 @@
         <v>28.94263344516489</v>
       </c>
       <c r="B20" t="n">
-        <v>18.90495500995793</v>
+        <v>18.90495500995794</v>
       </c>
       <c r="C20" t="n">
         <v>39.08577995269805</v>
@@ -667,12 +667,12 @@
         <v>20.19991003348373</v>
       </c>
       <c r="C21" t="n">
-        <v>43.01061769190624</v>
+        <v>43.01061769190623</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3.134369793829773</v>
+        <v>3.134369793829769</v>
       </c>
       <c r="B22" t="n">
         <v>5.024826869587655</v>
@@ -694,7 +694,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>26.75011789260253</v>
+        <v>26.75011789260254</v>
       </c>
       <c r="B24" t="n">
         <v>17.5316372601944</v>
@@ -705,7 +705,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>24.31057137305629</v>
+        <v>24.3105713730563</v>
       </c>
       <c r="B25" t="n">
         <v>15.46300076322719</v>
@@ -782,10 +782,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5.746071394016816</v>
+        <v>5.746071394016813</v>
       </c>
       <c r="B32" t="n">
-        <v>6.180718143672709</v>
+        <v>6.18071814367271</v>
       </c>
       <c r="C32" t="n">
         <v>6.093171032075809</v>
@@ -859,7 +859,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>26.42974423177139</v>
+        <v>26.4297442317714</v>
       </c>
       <c r="B39" t="n">
         <v>18.02719123475435</v>
@@ -876,7 +876,7 @@
         <v>18.13127353651652</v>
       </c>
       <c r="C40" t="n">
-        <v>40.22661788090541</v>
+        <v>40.2266178809054</v>
       </c>
     </row>
     <row r="41">
@@ -936,7 +936,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>9.231702900199537</v>
+        <v>9.231702900199535</v>
       </c>
       <c r="B46" t="n">
         <v>7.397481420156234</v>
@@ -947,13 +947,13 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4.156518280015781</v>
+        <v>4.15651828001578</v>
       </c>
       <c r="B47" t="n">
         <v>5.502890120308325</v>
       </c>
       <c r="C47" t="n">
-        <v>3.674936072242243</v>
+        <v>3.67493607224224</v>
       </c>
     </row>
     <row r="48">
@@ -1002,10 +1002,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>8.258960607410305</v>
+        <v>8.258960607410302</v>
       </c>
       <c r="B52" t="n">
-        <v>7.058481918876298</v>
+        <v>7.058481918876297</v>
       </c>
       <c r="C52" t="n">
         <v>10.13261164515821</v>
@@ -1041,12 +1041,12 @@
         <v>20.06084628404299</v>
       </c>
       <c r="C55" t="n">
-        <v>43.04881864986431</v>
+        <v>43.0488186498643</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>10.64910093355977</v>
+        <v>10.64910093355976</v>
       </c>
       <c r="B56" t="n">
         <v>8.988054666402768</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>5.696665200620039</v>
+        <v>5.696665200620036</v>
       </c>
       <c r="B57" t="n">
         <v>6.041654394231976</v>
@@ -1068,7 +1068,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>32.62588972493471</v>
+        <v>32.62588972493472</v>
       </c>
       <c r="B58" t="n">
         <v>20.67797328420439</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>15.50272427970594</v>
+        <v>15.50272427970593</v>
       </c>
       <c r="B62" t="n">
         <v>11.65632743969209</v>
@@ -1145,10 +1145,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>4.476891940846921</v>
+        <v>4.476891940846917</v>
       </c>
       <c r="B65" t="n">
-        <v>5.007336145748374</v>
+        <v>5.007336145748375</v>
       </c>
       <c r="C65" t="n">
         <v>4.739372084533461</v>
@@ -1189,7 +1189,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>4.304736860206114</v>
+        <v>4.304736860206111</v>
       </c>
       <c r="B69" t="n">
         <v>5.920081368630524</v>
@@ -1206,7 +1206,7 @@
         <v>17.99220978707579</v>
       </c>
       <c r="C70" t="n">
-        <v>40.26481883886348</v>
+        <v>40.26481883886347</v>
       </c>
     </row>
     <row r="71">
@@ -1217,7 +1217,7 @@
         <v>12.65566424049713</v>
       </c>
       <c r="C71" t="n">
-        <v>26.46513415886473</v>
+        <v>26.46513415886472</v>
       </c>
     </row>
     <row r="72">
